--- a/RTSLearnPro/DataTable/Players.xlsx
+++ b/RTSLearnPro/DataTable/Players.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,19 +88,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1;1;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;1;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;1;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;1;1</t>
+    <t>3.16;12.19;13.71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.59;12.19;14.49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.466;12.19;14.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.466;12.19;15.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.96;12.19;15.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.738;12.19;16.29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,6 +465,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -525,7 +536,7 @@
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -539,7 +550,7 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -553,7 +564,7 @@
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -567,7 +578,7 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -581,7 +592,7 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/RTSLearnPro/DataTable/Players.xlsx
+++ b/RTSLearnPro/DataTable/Players.xlsx
@@ -88,27 +88,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.16;12.19;13.71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.59;12.19;14.49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.466;12.19;14.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.466;12.19;15.88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.96;12.19;15.88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.738;12.19;16.29</t>
+    <t>12.84;0.96;26.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.35;0.96;26.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.72;0.96;26.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.728;0.96;24.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.4;0.96;24.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.35;0.96;24.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +522,7 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -536,7 +536,7 @@
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
